--- a/69.britishiceskating/extracted_data/69.Data.xlsx
+++ b/69.britishiceskating/extracted_data/69.Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Upwork\Task01\Multiple_Directories_Web_scraping\69.britishiceskating\extracted_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8209F4CF-6739-46C9-A151-5B68EE01D854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010C058C-CF5D-4083-BB69-1F4BF17178B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,9 @@
     <t>emma14.louise@hotmail.co.uk</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Bradford Test Centre</t>
   </si>
   <si>
@@ -67,15 +70,6 @@
     <t>pamagusstoguildford@btinternet.com</t>
   </si>
   <si>
-    <t>Hemel Hempstead-PI Test Centre</t>
-  </si>
-  <si>
-    <t>+44 7730576332</t>
-  </si>
-  <si>
-    <t>Mrsamiesmith@gmail.com</t>
-  </si>
-  <si>
     <t>Kirkcaldy Test Centre</t>
   </si>
   <si>
@@ -97,15 +91,9 @@
     <t>Sheffield Test Centre</t>
   </si>
   <si>
-    <t>+447885986552</t>
-  </si>
-  <si>
     <t>laurahawkins54@btinternet.com</t>
   </si>
   <si>
-    <t>Solihull Test Centre</t>
-  </si>
-  <si>
     <t>Stirling Test Centre</t>
   </si>
   <si>
@@ -124,6 +112,9 @@
     <t>AVIEMORE HIGHLAND RESORT LTD, AVIEMORE, United Kingdom, PH22 1PN</t>
   </si>
   <si>
+    <t>https://www.aviemoreicerink.com/</t>
+  </si>
+  <si>
     <t>Bradford</t>
   </si>
   <si>
@@ -136,6 +127,9 @@
     <t>Forfar Indoor Sports, Suttieside Road, Forfar, Angus, DD8 3NJ</t>
   </si>
   <si>
+    <t>https://www.fis.scot/</t>
+  </si>
+  <si>
     <t>OZONE Ice Rink | Bracknell</t>
   </si>
   <si>
@@ -157,12 +151,18 @@
     <t>seaneaston@everyoneactive.com</t>
   </si>
   <si>
+    <t>www.everyoneactive.com</t>
+  </si>
+  <si>
     <t>Sheffield</t>
   </si>
   <si>
     <t>ICE, Coleridge Road, SHEFFIELD, South Yorkshire, United Kingdom, S9 5DA</t>
   </si>
   <si>
+    <t>sheffieldcitytrust.org</t>
+  </si>
+  <si>
     <t>Aberdeen Linx Ice Skating Club</t>
   </si>
   <si>
@@ -301,67 +301,124 @@
     <t>Moray Leisure Centre</t>
   </si>
   <si>
-    <t>Novice Championships 2024</t>
+    <t>Olympia FSC</t>
+  </si>
+  <si>
+    <t>olympiafsc@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>Rewild Play</t>
+  </si>
+  <si>
+    <t>hello@rewildplay.org.uk</t>
+  </si>
+  <si>
+    <t>Chantelle A'court</t>
+  </si>
+  <si>
+    <t>Alan Abretti</t>
+  </si>
+  <si>
+    <t>Beverley Adshead</t>
+  </si>
+  <si>
+    <t>Daianamaria Aggiano</t>
+  </si>
+  <si>
+    <t>Kelly Aiano</t>
+  </si>
+  <si>
+    <t>Jan Alderman</t>
+  </si>
+  <si>
+    <t>Chloe Alderson</t>
+  </si>
+  <si>
+    <t>Daniella Alessi</t>
+  </si>
+  <si>
+    <t>Angelica Alexander</t>
+  </si>
+  <si>
+    <t>Becky Allan</t>
+  </si>
+  <si>
+    <t>Caroline Allan</t>
+  </si>
+  <si>
+    <t>Faith Allan</t>
+  </si>
+  <si>
+    <t>Rebecca Allan</t>
+  </si>
+  <si>
+    <t>Edward Alton</t>
+  </si>
+  <si>
+    <t>Nancy Ambler</t>
+  </si>
+  <si>
+    <t>Charlie Anderson</t>
+  </si>
+  <si>
+    <t>Penelope Anderson</t>
+  </si>
+  <si>
+    <t>Dempsey Andrews</t>
+  </si>
+  <si>
+    <t>Jan Andrews</t>
+  </si>
+  <si>
+    <t>Stuart Angus</t>
+  </si>
+  <si>
+    <t>Solo Dance Championship</t>
   </si>
   <si>
     <t>Ice Sheffield, Coleridge Road, Sheffield, South Yorkshire, United Kingdom, S9 5DA</t>
   </si>
   <si>
-    <t>Young Stars</t>
-  </si>
-  <si>
-    <t>BIS Open</t>
-  </si>
-  <si>
-    <t>*Limited Spaces Remaining* Safeguarding &amp; Protecting Children</t>
+    <t>Magnum Open</t>
+  </si>
+  <si>
+    <t>NORTH AYRSHIRE LEISURE, Auchenharvie Leisure Centre, Saltcoats Road, STEVENSTON, United Kingdom, KA20 3JR</t>
+  </si>
+  <si>
+    <t>Performance Camp presented by Disney on Ice</t>
+  </si>
+  <si>
+    <t>Bridging the Gap</t>
+  </si>
+  <si>
+    <t>English Institute of Sport, Coleridge Road, SHEFFIELD, United Kingdom, S9 5DA</t>
+  </si>
+  <si>
+    <t>Safeguarding &amp; Protecting Children</t>
   </si>
   <si>
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>Pairs Training &amp; Try Out Camp</t>
-  </si>
-  <si>
-    <t>Dundee Ice Arena, 7 Dayton Drive, DUNDEE, United Kingdom, DD2 3SQ</t>
-  </si>
-  <si>
-    <t>Safeguarding &amp; Protecting Children</t>
-  </si>
-  <si>
-    <t>Solo Ice Dance Progression Camp</t>
-  </si>
-  <si>
-    <t>NOTTINGHAM ICE CENTRE LTD, Bolero Square, NOTTINGHAM, United Kingdom, NG1 1LA</t>
-  </si>
-  <si>
-    <t>Experience Day presented by Disney on Ice</t>
-  </si>
-  <si>
-    <t>Performance Camp presented by Disney on Ice</t>
-  </si>
-  <si>
-    <t>Bridging the Gap</t>
-  </si>
-  <si>
-    <t>English Institute of Sport, Coleridge Road, SHEFFIELD, United Kingdom, S9 5DA</t>
-  </si>
-  <si>
     <t>Coaches Convention</t>
   </si>
   <si>
     <t>Skills Seminar</t>
   </si>
   <si>
-    <t>Novice Championships Young Stars Spectator Tickets</t>
-  </si>
-  <si>
-    <t>Young Stars &amp; Novice Championships Video Order</t>
-  </si>
-  <si>
-    <t>Young Stars Practice Ice</t>
-  </si>
-  <si>
-    <t>Squad Kit</t>
+    <t>Development Academy Camp</t>
+  </si>
+  <si>
+    <t>ICE SHEFFIELD, Coleridge Road, SHEFFIELD, South Yorkshire, United Kingdom, S9 5DA</t>
+  </si>
+  <si>
+    <t>Solo Ice Dance Progression Camp July 2024</t>
+  </si>
+  <si>
+    <t>Adult Development Camp</t>
+  </si>
+  <si>
+    <t>Website</t>
   </si>
 </sst>
 </file>
@@ -732,22 +789,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9963CCEC-5747-4ECC-8951-EC967D267257}">
-  <dimension ref="A1:D56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A249879E-6B86-4F90-AFE8-A9B4D85094EB}">
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.33203125" customWidth="1"/>
-    <col min="2" max="2" width="90.44140625" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="101.88671875" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="36.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,8 +818,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -774,10 +835,13 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -786,122 +850,149 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
+      <c r="C11" s="2">
+        <v>447885986552</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -909,60 +1000,72 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -970,13 +1073,16 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -984,69 +1090,84 @@
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1054,223 +1175,271 @@
       <c r="D22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1278,41 +1447,50 @@
       <c r="D38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>5</v>
@@ -1320,13 +1498,16 @@
       <c r="D41" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1334,13 +1515,16 @@
       <c r="D42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
@@ -1348,13 +1532,16 @@
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1362,13 +1549,16 @@
       <c r="D44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>5</v>
@@ -1376,13 +1566,16 @@
       <c r="D45" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1390,13 +1583,16 @@
       <c r="D46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>5</v>
@@ -1404,13 +1600,16 @@
       <c r="D47" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1418,13 +1617,16 @@
       <c r="D48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>5</v>
@@ -1432,103 +1634,382 @@
       <c r="D49" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
       <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" t="s">
-        <v>5</v>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
